--- a/Images/iOS/iOSGetArbitraryThreadCallStack/CallStack.xlsx
+++ b/Images/iOS/iOSGetArbitraryThreadCallStack/CallStack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29280" windowHeight="14060"/>
+    <workbookView windowWidth="29440" windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>低地址</t>
   </si>
@@ -94,13 +94,157 @@
     <t xml:space="preserve">Earlier frame </t>
   </si>
   <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x8</t>
+  </si>
+  <si>
+    <t>0x0c</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0xc</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x10</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x18</t>
+  </si>
+  <si>
+    <t>0x1c - 0x1f</t>
+  </si>
+  <si>
+    <t>0x1c</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>&lt;-- fp-0x10</t>
+  </si>
+  <si>
+    <t>0x24</t>
+  </si>
+  <si>
+    <t>0x28</t>
+  </si>
+  <si>
+    <t>&lt;-- fp-0x8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2c </t>
+  </si>
+  <si>
+    <t>0x30</t>
+  </si>
+  <si>
     <t>x29 fp</t>
   </si>
   <si>
-    <t>x30 lr</t>
-  </si>
-  <si>
     <t>&lt;-- fp</t>
+  </si>
+  <si>
+    <t>0x34</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x30 lr </t>
+  </si>
+  <si>
+    <t>0x3c -0x3f</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x1c</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x20</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x24</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x28</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x2c</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x30</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x38</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x0</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x40</t>
+  </si>
+  <si>
+    <t>ldr  w10, [sp, #0x40]</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x4</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x44</t>
+  </si>
+  <si>
+    <t>ldr    w9, [sp, #0x44]</t>
+  </si>
+  <si>
+    <t>&lt;-- sp+0x48</t>
+  </si>
+  <si>
+    <t>ldr    w8, [sp, #0x48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">局部变量d </t>
+  </si>
+  <si>
+    <t xml:space="preserve">局部变量c </t>
+  </si>
+  <si>
+    <t>参数 b (w3)</t>
+  </si>
+  <si>
+    <t>参数 a (w2)</t>
+  </si>
+  <si>
+    <t>0x1c-0x1f</t>
+  </si>
+  <si>
+    <t>0x2c - 0x2f</t>
   </si>
 </sst>
 </file>
@@ -279,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +481,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,100 +788,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -728,7 +896,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,7 +911,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,17 +923,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,17 +991,50 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1154,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D3:AK364"/>
+  <dimension ref="C3:AK433"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="L402" sqref="L402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8"/>
@@ -1166,15 +1367,18 @@
     <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="12.6428571428571" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.17857142857143" customWidth="1"/>
+    <col min="7" max="7" width="12.4910714285714" customWidth="1"/>
     <col min="8" max="8" width="14.3214285714286" customWidth="1"/>
-    <col min="9" max="9" width="8.02678571428571" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
     <col min="11" max="11" width="13.4107142857143" customWidth="1"/>
-    <col min="12" max="12" width="8.03571428571429" customWidth="1"/>
+    <col min="12" max="12" width="10.4196428571429" customWidth="1"/>
+    <col min="13" max="13" width="12.0803571428571" customWidth="1"/>
     <col min="14" max="14" width="11.9017857142857" customWidth="1"/>
-    <col min="15" max="15" width="7.92857142857143" customWidth="1"/>
+    <col min="15" max="15" width="10.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="11.5982142857143" customWidth="1"/>
     <col min="17" max="17" width="12.5535714285714" customWidth="1"/>
     <col min="18" max="18" width="7.74107142857143" customWidth="1"/>
+    <col min="19" max="19" width="10.5982142857143" customWidth="1"/>
     <col min="20" max="20" width="12.3928571428571" customWidth="1"/>
     <col min="21" max="21" width="7.74107142857143" customWidth="1"/>
     <col min="23" max="23" width="11.1964285714286" customWidth="1"/>
@@ -5281,137 +5485,1344 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="4:5">
-      <c r="D329" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E329" s="16"/>
-    </row>
-    <row r="330" spans="5:5">
-      <c r="E330" s="16"/>
-    </row>
-    <row r="331" spans="5:5">
-      <c r="E331" s="16"/>
-    </row>
-    <row r="332" spans="5:5">
-      <c r="E332" s="16"/>
-    </row>
-    <row r="333" spans="5:5">
-      <c r="E333" s="16"/>
-    </row>
-    <row r="334" spans="5:5">
-      <c r="E334" s="16"/>
-    </row>
-    <row r="335" spans="4:5">
-      <c r="D335" s="1"/>
-      <c r="E335" s="16"/>
-    </row>
-    <row r="336" spans="4:5">
-      <c r="D336" s="1"/>
-      <c r="E336" s="16"/>
-    </row>
-    <row r="337" spans="4:5">
-      <c r="D337" s="1"/>
-      <c r="E337" s="16"/>
-    </row>
-    <row r="338" spans="4:5">
-      <c r="D338" s="1"/>
-      <c r="E338" s="16"/>
-    </row>
-    <row r="339" spans="4:5">
-      <c r="D339" s="1"/>
-      <c r="E339" s="16"/>
-    </row>
-    <row r="340" spans="4:5">
-      <c r="D340" s="1"/>
-      <c r="E340" s="16"/>
-    </row>
-    <row r="341" spans="4:6">
-      <c r="D341" s="1"/>
-      <c r="E341" s="16"/>
-      <c r="F341" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="4:5">
-      <c r="D342" s="1"/>
-      <c r="E342" s="16"/>
-    </row>
-    <row r="343" spans="4:5">
-      <c r="D343" s="1"/>
-      <c r="E343" s="16"/>
-    </row>
-    <row r="344" spans="4:5">
-      <c r="D344" s="1"/>
-      <c r="E344" s="16"/>
-    </row>
-    <row r="345" spans="5:5">
-      <c r="E345" s="20" t="s">
+    <row r="318" ht="15.6" spans="5:10">
+      <c r="E318" s="19"/>
+      <c r="H318" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="346" spans="5:5">
-      <c r="E346" s="20"/>
-    </row>
-    <row r="347" spans="5:5">
-      <c r="E347" s="21" t="s">
+      <c r="I318" s="19"/>
+      <c r="J318" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" ht="15.6" spans="5:9">
+      <c r="E319" s="19"/>
+      <c r="H319" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="348" spans="5:5">
-      <c r="E348" s="21"/>
-    </row>
-    <row r="349" spans="5:5">
-      <c r="E349" s="16"/>
-    </row>
-    <row r="350" spans="5:5">
-      <c r="E350" s="16"/>
-    </row>
-    <row r="351" spans="5:5">
-      <c r="E351" s="16"/>
-    </row>
-    <row r="352" spans="5:5">
-      <c r="E352" s="16"/>
-    </row>
-    <row r="353" spans="5:5">
-      <c r="E353" s="16"/>
-    </row>
-    <row r="354" spans="5:5">
-      <c r="E354" s="16"/>
-    </row>
-    <row r="355" spans="5:5">
-      <c r="E355" s="16"/>
-    </row>
-    <row r="356" spans="5:5">
-      <c r="E356" s="16"/>
-    </row>
-    <row r="357" spans="5:7">
-      <c r="E357" s="20" t="s">
+      <c r="I319" s="19"/>
+    </row>
+    <row r="320" ht="15.6" spans="5:11">
+      <c r="E320" s="19"/>
+      <c r="H320" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I320" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K320" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" ht="15.6" spans="5:11">
+      <c r="E321" s="19"/>
+      <c r="H321" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I321" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K321" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="322" ht="15.6" spans="5:11">
+      <c r="E322" s="19"/>
+      <c r="H322" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I322" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K322" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="323" ht="15.6" spans="5:11">
+      <c r="E323" s="19"/>
+      <c r="H323" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I323" s="25"/>
+      <c r="K323" s="21"/>
+    </row>
+    <row r="324" ht="15.6" spans="5:11">
+      <c r="E324" s="19"/>
+      <c r="H324" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I324" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K324" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="325" ht="15.6" spans="5:11">
+      <c r="E325" s="19"/>
+      <c r="H325" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I325" s="26"/>
+      <c r="K325" s="21"/>
+    </row>
+    <row r="326" ht="15.6" spans="4:10">
+      <c r="D326" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G357" s="1" t="s">
+      <c r="E326" s="19"/>
+      <c r="F326" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H326" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I326" s="19"/>
+      <c r="J326" s="21"/>
+    </row>
+    <row r="327" ht="15.6" spans="4:9">
+      <c r="D327" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E327" s="19"/>
+      <c r="H327" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I327" s="19"/>
+    </row>
+    <row r="328" ht="15.6" spans="4:9">
+      <c r="D328" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="358" spans="5:5">
-      <c r="E358" s="20"/>
-    </row>
-    <row r="359" spans="5:5">
-      <c r="E359" s="21" t="s">
+      <c r="E328" s="19"/>
+      <c r="H328" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I328" s="19"/>
+    </row>
+    <row r="329" ht="15.6" spans="3:9">
+      <c r="C329" s="23"/>
+      <c r="D329" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E329" s="19"/>
+      <c r="H329" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I329" s="19"/>
+    </row>
+    <row r="330" ht="15.6" spans="3:9">
+      <c r="C330" s="23"/>
+      <c r="D330" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E330" s="19"/>
+      <c r="F330"/>
+      <c r="H330" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I330" s="19"/>
+    </row>
+    <row r="331" ht="15.6" spans="3:11">
+      <c r="C331" s="23"/>
+      <c r="D331" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E331" s="19"/>
+      <c r="G331" s="21"/>
+      <c r="H331" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I331" s="19"/>
+      <c r="K331" s="21"/>
+    </row>
+    <row r="332" ht="15.6" spans="3:11">
+      <c r="C332" s="23"/>
+      <c r="D332" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E332" s="19"/>
+      <c r="G332" s="21"/>
+      <c r="H332" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I332" s="19"/>
+      <c r="K332" s="21"/>
+    </row>
+    <row r="333" ht="15.6" spans="3:11">
+      <c r="C333" s="23"/>
+      <c r="D333" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E333" s="19"/>
+      <c r="G333" s="21"/>
+      <c r="H333" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I333" s="19"/>
+      <c r="K333" s="21"/>
+    </row>
+    <row r="334" ht="15.6" spans="3:11">
+      <c r="C334" s="23"/>
+      <c r="D334" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E334" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G334" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H334" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I334" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K334" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="335" ht="15.6" spans="3:9">
+      <c r="C335" s="23"/>
+      <c r="D335" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E335" s="25"/>
+      <c r="H335" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I335" s="25"/>
+    </row>
+    <row r="336" ht="15.6" spans="3:11">
+      <c r="C336" s="23"/>
+      <c r="D336" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E336" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G336" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H336" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I336" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K336" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="337" ht="15.6" spans="3:9">
+      <c r="C337" s="23"/>
+      <c r="D337" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E337" s="26"/>
+      <c r="H337" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I337" s="26"/>
+    </row>
+    <row r="338" ht="15.6" spans="3:11">
+      <c r="C338" s="23"/>
+      <c r="D338" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E338" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H338" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I338" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="339" ht="15.6" spans="3:9">
+      <c r="C339" s="23"/>
+      <c r="D339" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E339" s="28"/>
+      <c r="H339" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I339" s="28"/>
+    </row>
+    <row r="340" ht="15.6" spans="3:9">
+      <c r="C340" s="23"/>
+      <c r="D340" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E340" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H340" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I340" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="341" ht="15.6" spans="3:9">
+      <c r="C341" s="23"/>
+      <c r="D341" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E341" s="30"/>
+      <c r="H341" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I341" s="30"/>
+    </row>
+    <row r="342" ht="15.6" spans="3:3">
+      <c r="C342" s="23"/>
+    </row>
+    <row r="343" ht="15.6" spans="3:3">
+      <c r="C343" s="23"/>
+    </row>
+    <row r="344" ht="15.6" spans="3:3">
+      <c r="C344" s="23"/>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="23"/>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346" s="23"/>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347" s="23"/>
+    </row>
+    <row r="348" ht="15.6" spans="3:3">
+      <c r="C348" s="23"/>
+    </row>
+    <row r="349" ht="15.6" spans="5:10">
+      <c r="E349" s="19"/>
+      <c r="H349" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I349" s="19"/>
+      <c r="J349" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" ht="15.6" spans="5:9">
+      <c r="E350" s="19"/>
+      <c r="H350" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="360" spans="4:5">
-      <c r="D360" s="1" t="s">
+      <c r="I350" s="19"/>
+    </row>
+    <row r="351" ht="15.6" spans="5:9">
+      <c r="E351" s="19"/>
+      <c r="H351" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I351" s="19"/>
+    </row>
+    <row r="352" ht="15.6" spans="5:9">
+      <c r="E352" s="19"/>
+      <c r="H352" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I352" s="19"/>
+    </row>
+    <row r="353" ht="15.6" spans="5:9">
+      <c r="E353" s="19"/>
+      <c r="H353" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I353" s="19"/>
+    </row>
+    <row r="354" ht="15.6" spans="5:9">
+      <c r="E354" s="19"/>
+      <c r="H354" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I354" s="19"/>
+    </row>
+    <row r="355" ht="15.6" spans="5:11">
+      <c r="E355" s="19"/>
+      <c r="H355" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I355" s="22">
         <v>6</v>
       </c>
-      <c r="E360" s="21"/>
-    </row>
-    <row r="364" spans="6:6">
-      <c r="F364" s="22"/>
+      <c r="K355" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="356" ht="15.6" spans="5:11">
+      <c r="E356" s="19"/>
+      <c r="H356" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I356" s="22">
+        <v>5</v>
+      </c>
+      <c r="K356" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="357" ht="15.6" spans="5:11">
+      <c r="E357" s="19"/>
+      <c r="H357" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I357" s="22">
+        <v>4</v>
+      </c>
+      <c r="K357" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="358" ht="15.6" spans="5:11">
+      <c r="E358" s="19"/>
+      <c r="H358" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I358" s="22">
+        <v>3</v>
+      </c>
+      <c r="K358" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="359" ht="15.6" spans="5:11">
+      <c r="E359" s="19"/>
+      <c r="H359" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I359" s="22">
+        <v>2</v>
+      </c>
+      <c r="K359" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="360" ht="15.6" spans="5:11">
+      <c r="E360" s="19"/>
+      <c r="H360" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I360" s="22">
+        <v>1</v>
+      </c>
+      <c r="K360" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" ht="15.6" spans="5:11">
+      <c r="E361" s="19"/>
+      <c r="H361" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I361" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K361" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="362" ht="15.6" spans="5:9">
+      <c r="E362" s="19"/>
+      <c r="H362" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I362" s="25"/>
+    </row>
+    <row r="363" ht="15.6" spans="5:11">
+      <c r="E363" s="19"/>
+      <c r="H363" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I363" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K363" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="364" ht="15.6" spans="5:9">
+      <c r="E364" s="19"/>
+      <c r="H364" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I364" s="26"/>
+    </row>
+    <row r="365" ht="15.6" spans="4:12">
+      <c r="D365" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E365" s="31">
+        <v>7</v>
+      </c>
+      <c r="F365" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G365" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H365" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I365" s="31">
+        <v>7</v>
+      </c>
+      <c r="K365" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L365" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="366" ht="15.6" spans="4:12">
+      <c r="D366" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E366" s="31">
+        <v>8</v>
+      </c>
+      <c r="G366" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H366" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I366" s="31">
+        <v>8</v>
+      </c>
+      <c r="K366" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L366" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="367" ht="15.6" spans="4:12">
+      <c r="D367" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="31">
+        <v>9</v>
+      </c>
+      <c r="G367" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H367" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I367" s="31">
+        <v>9</v>
+      </c>
+      <c r="J367"/>
+      <c r="K367" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L367" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="368" ht="15.6" spans="4:9">
+      <c r="D368" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E368" s="19"/>
+      <c r="H368" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I368" s="19"/>
+    </row>
+    <row r="369" ht="15.6" spans="4:9">
+      <c r="D369" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E369" s="19"/>
+      <c r="H369" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I369" s="19"/>
+    </row>
+    <row r="370" ht="15.6" spans="4:9">
+      <c r="D370" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E370" s="19"/>
+      <c r="H370" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I370" s="19"/>
+    </row>
+    <row r="371" ht="15.6" spans="4:9">
+      <c r="D371" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E371" s="19"/>
+      <c r="H371" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I371" s="19"/>
+    </row>
+    <row r="372" ht="15.6" spans="4:9">
+      <c r="D372" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E372" s="19"/>
+      <c r="H372" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I372" s="19"/>
+    </row>
+    <row r="373" ht="15.6" spans="4:11">
+      <c r="D373" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E373" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H373" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I373" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K373" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374" ht="15.6" spans="4:9">
+      <c r="D374" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E374" s="25"/>
+      <c r="H374" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I374" s="25"/>
+    </row>
+    <row r="375" ht="15.6" spans="4:11">
+      <c r="D375" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E375" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H375" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I375" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K375" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="376" ht="15.6" spans="4:9">
+      <c r="D376" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E376" s="26"/>
+      <c r="H376" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I376" s="26"/>
+    </row>
+    <row r="377" spans="4:11">
+      <c r="D377" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E377" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H377" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I377" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K377" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="378" spans="4:9">
+      <c r="D378" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E378" s="28"/>
+      <c r="H378" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I378" s="28"/>
+    </row>
+    <row r="379" spans="4:9">
+      <c r="D379" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E379" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H379" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I379" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="380" spans="4:9">
+      <c r="D380" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E380" s="30"/>
+      <c r="H380" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I380" s="30"/>
+    </row>
+    <row r="386" ht="15.6" spans="4:13">
+      <c r="D386" s="1"/>
+      <c r="E386" s="19"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="19"/>
+      <c r="L386" s="1"/>
+      <c r="M386" s="19"/>
+    </row>
+    <row r="387" ht="15.6" spans="5:16">
+      <c r="E387" s="19"/>
+      <c r="I387" s="19"/>
+      <c r="M387" s="19"/>
+      <c r="P387" s="1"/>
+    </row>
+    <row r="388" ht="15.6" spans="5:13">
+      <c r="E388" s="19"/>
+      <c r="I388" s="19"/>
+      <c r="M388" s="19"/>
+    </row>
+    <row r="389" ht="15.6" spans="5:13">
+      <c r="E389" s="19"/>
+      <c r="I389" s="19"/>
+      <c r="M389" s="19"/>
+    </row>
+    <row r="390" ht="15.6" spans="5:13">
+      <c r="E390" s="19"/>
+      <c r="I390" s="19"/>
+      <c r="M390" s="19"/>
+    </row>
+    <row r="391" ht="15.6" spans="5:13">
+      <c r="E391" s="19"/>
+      <c r="I391" s="19"/>
+      <c r="M391" s="19"/>
+    </row>
+    <row r="392" ht="15.6" spans="4:13">
+      <c r="D392" s="1"/>
+      <c r="E392" s="19"/>
+      <c r="H392" s="1"/>
+      <c r="I392" s="19"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="19"/>
+    </row>
+    <row r="393" ht="15.6" spans="4:16">
+      <c r="D393" s="1"/>
+      <c r="E393" s="19"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="19"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="19"/>
+      <c r="P393" s="1"/>
+    </row>
+    <row r="394" ht="15.6" spans="4:16">
+      <c r="D394" s="1"/>
+      <c r="E394" s="19"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="19"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="19"/>
+      <c r="P394" s="1"/>
+    </row>
+    <row r="395" ht="15.6" spans="4:16">
+      <c r="D395" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E395" s="19"/>
+      <c r="F395" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G395" s="21"/>
+      <c r="H395" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I395" s="19"/>
+      <c r="J395" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K395" s="21"/>
+      <c r="L395" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M395" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N395" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O395" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P395" s="1"/>
+    </row>
+    <row r="396" ht="15.6" spans="4:19">
+      <c r="D396" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E396" s="19"/>
+      <c r="G396" s="21"/>
+      <c r="H396" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I396" s="19"/>
+      <c r="K396" s="21"/>
+      <c r="L396" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M396" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="O396" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P396" s="20"/>
+      <c r="Q396" s="21"/>
+      <c r="R396" s="21"/>
+      <c r="S396" s="21"/>
+    </row>
+    <row r="397" ht="15.6" spans="4:19">
+      <c r="D397" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397" s="19"/>
+      <c r="G397" s="21"/>
+      <c r="H397" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I397" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K397" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L397" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M397" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="O397" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P397" s="20"/>
+      <c r="Q397"/>
+      <c r="R397" s="21"/>
+      <c r="S397" s="21"/>
+    </row>
+    <row r="398" ht="15.6" spans="4:19">
+      <c r="D398" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E398" s="19"/>
+      <c r="G398" s="21"/>
+      <c r="H398" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I398" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K398" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L398" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M398" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O398" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P398" s="20"/>
+      <c r="Q398"/>
+      <c r="R398" s="21"/>
+      <c r="S398" s="21"/>
+    </row>
+    <row r="399" ht="15.6" spans="4:19">
+      <c r="D399" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E399" s="19"/>
+      <c r="G399" s="21"/>
+      <c r="H399" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I399" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K399" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L399" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M399" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O399" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P399" s="20"/>
+      <c r="Q399"/>
+      <c r="R399" s="21"/>
+      <c r="S399" s="21"/>
+    </row>
+    <row r="400" ht="15.6" spans="4:19">
+      <c r="D400" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E400" s="19"/>
+      <c r="H400" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I400" s="25"/>
+      <c r="L400" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M400" s="25"/>
+      <c r="P400" s="20"/>
+      <c r="Q400"/>
+      <c r="R400" s="21"/>
+      <c r="S400" s="21"/>
+    </row>
+    <row r="401" ht="15.6" spans="4:16">
+      <c r="D401" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E401" s="19"/>
+      <c r="G401" s="21"/>
+      <c r="H401" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I401" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K401" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L401" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M401" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O401" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P401" s="24"/>
+    </row>
+    <row r="402" ht="15.6" spans="4:19">
+      <c r="D402" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E402" s="19"/>
+      <c r="H402" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I402" s="26"/>
+      <c r="L402" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M402" s="26"/>
+      <c r="P402" s="24"/>
+      <c r="Q402"/>
+      <c r="R402" s="21"/>
+      <c r="S402" s="21"/>
+    </row>
+    <row r="403" ht="15.6" spans="4:16">
+      <c r="D403" s="20"/>
+      <c r="E403" s="20"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="20"/>
+      <c r="I403" s="20"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="20"/>
+      <c r="M403" s="20"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="24"/>
+    </row>
+    <row r="404" ht="15.6" spans="4:19">
+      <c r="D404" s="24"/>
+      <c r="E404" s="24"/>
+      <c r="H404" s="24"/>
+      <c r="I404" s="24"/>
+      <c r="L404" s="24"/>
+      <c r="M404" s="24"/>
+      <c r="P404" s="20"/>
+      <c r="Q404"/>
+      <c r="R404" s="1"/>
+      <c r="S404" s="1"/>
+    </row>
+    <row r="405" ht="15.6" spans="4:16">
+      <c r="D405" s="24"/>
+      <c r="E405" s="24"/>
+      <c r="H405" s="24"/>
+      <c r="I405" s="24"/>
+      <c r="L405" s="24"/>
+      <c r="M405" s="24"/>
+      <c r="P405" s="24"/>
+    </row>
+    <row r="406" ht="15.6" spans="4:16">
+      <c r="D406" s="20"/>
+      <c r="E406" s="20"/>
+      <c r="H406" s="20"/>
+      <c r="I406" s="20"/>
+      <c r="L406" s="20"/>
+      <c r="M406" s="20"/>
+      <c r="P406" s="24"/>
+    </row>
+    <row r="407" ht="15.6" spans="16:16">
+      <c r="P407" s="20"/>
+    </row>
+    <row r="413" ht="15.6" spans="4:13">
+      <c r="D413" s="1"/>
+      <c r="E413" s="19"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="19"/>
+      <c r="L413" s="1"/>
+      <c r="M413" s="19"/>
+    </row>
+    <row r="414" ht="15.6" spans="5:13">
+      <c r="E414" s="19"/>
+      <c r="I414" s="19"/>
+      <c r="M414" s="19"/>
+    </row>
+    <row r="415" ht="15.6" spans="5:13">
+      <c r="E415" s="19"/>
+      <c r="I415" s="19"/>
+      <c r="M415" s="19"/>
+    </row>
+    <row r="416" ht="15.6" spans="5:13">
+      <c r="E416" s="19"/>
+      <c r="I416" s="19"/>
+      <c r="M416" s="19"/>
+    </row>
+    <row r="417" ht="15.6" spans="5:13">
+      <c r="E417" s="19"/>
+      <c r="I417" s="19"/>
+      <c r="M417" s="19"/>
+    </row>
+    <row r="418" ht="15.6" spans="5:13">
+      <c r="E418" s="19"/>
+      <c r="I418" s="19"/>
+      <c r="M418" s="19"/>
+    </row>
+    <row r="419" ht="15.6" spans="4:13">
+      <c r="D419" s="1"/>
+      <c r="E419" s="19"/>
+      <c r="H419" s="1"/>
+      <c r="I419" s="19"/>
+      <c r="L419" s="1"/>
+      <c r="M419" s="19"/>
+    </row>
+    <row r="420" ht="15.6" spans="4:13">
+      <c r="D420" s="1"/>
+      <c r="E420" s="19"/>
+      <c r="H420" s="1"/>
+      <c r="I420" s="19"/>
+      <c r="L420" s="1"/>
+      <c r="M420" s="19"/>
+    </row>
+    <row r="421" ht="15.6" spans="4:13">
+      <c r="D421" s="1"/>
+      <c r="E421" s="19"/>
+      <c r="H421" s="1"/>
+      <c r="I421" s="19"/>
+      <c r="L421" s="1"/>
+      <c r="M421" s="19"/>
+    </row>
+    <row r="422" ht="15.6" spans="4:15">
+      <c r="D422" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E422" s="19"/>
+      <c r="F422" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G422" s="21"/>
+      <c r="H422" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I422" s="19"/>
+      <c r="J422" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K422" s="21"/>
+      <c r="L422" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M422" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N422" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O422" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="423" ht="15.6" spans="4:15">
+      <c r="D423" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E423" s="19"/>
+      <c r="G423" s="21"/>
+      <c r="H423" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I423" s="19"/>
+      <c r="K423" s="21"/>
+      <c r="L423" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M423" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="O423" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="424" ht="15.6" spans="4:15">
+      <c r="D424" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E424" s="19"/>
+      <c r="F424"/>
+      <c r="G424" s="21"/>
+      <c r="H424" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I424" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K424" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L424" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M424" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="O424" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" ht="15.6" spans="4:15">
+      <c r="D425" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E425" s="19"/>
+      <c r="G425" s="21"/>
+      <c r="H425" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I425" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K425" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L425" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M425" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O425" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="426" ht="15.6" spans="4:15">
+      <c r="D426" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E426" s="19"/>
+      <c r="G426" s="21"/>
+      <c r="H426" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I426" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K426" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L426" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M426" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O426" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="427" ht="15.6" spans="4:13">
+      <c r="D427" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E427" s="19"/>
+      <c r="H427" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I427" s="25"/>
+      <c r="L427" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M427" s="25"/>
+    </row>
+    <row r="428" ht="15.6" spans="4:15">
+      <c r="D428" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E428" s="19"/>
+      <c r="G428" s="21"/>
+      <c r="H428" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I428" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K428" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L428" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M428" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O428" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="429" ht="15.6" spans="4:13">
+      <c r="D429" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E429" s="19"/>
+      <c r="H429" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I429" s="26"/>
+      <c r="L429" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M429" s="26"/>
+    </row>
+    <row r="430" ht="15.6" spans="4:15">
+      <c r="D430" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E430" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H430" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I430" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L430" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M430" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O430" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="431" ht="15.6" spans="4:13">
+      <c r="D431" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E431" s="28"/>
+      <c r="H431" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I431" s="28"/>
+      <c r="L431" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M431" s="28"/>
+    </row>
+    <row r="432" ht="15.6" spans="4:13">
+      <c r="D432" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E432" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H432" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I432" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L432" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M432" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="433" ht="15.6" spans="4:13">
+      <c r="D433" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E433" s="30"/>
+      <c r="H433" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I433" s="30"/>
+      <c r="L433" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="M433" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="192">
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E47:E48"/>
@@ -5437,10 +6848,16 @@
     <mergeCell ref="E257:E258"/>
     <mergeCell ref="E259:E260"/>
     <mergeCell ref="E261:E264"/>
-    <mergeCell ref="E345:E346"/>
-    <mergeCell ref="E347:E348"/>
-    <mergeCell ref="E357:E358"/>
-    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="E334:E335"/>
+    <mergeCell ref="E336:E337"/>
+    <mergeCell ref="E338:E339"/>
+    <mergeCell ref="E340:E341"/>
+    <mergeCell ref="E373:E374"/>
+    <mergeCell ref="E375:E376"/>
+    <mergeCell ref="E377:E378"/>
+    <mergeCell ref="E379:E380"/>
+    <mergeCell ref="E430:E431"/>
+    <mergeCell ref="E432:E433"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H88:H89"/>
     <mergeCell ref="H118:H119"/>
@@ -5459,6 +6876,24 @@
     <mergeCell ref="H226:H229"/>
     <mergeCell ref="H294:H295"/>
     <mergeCell ref="H296:H299"/>
+    <mergeCell ref="I322:I323"/>
+    <mergeCell ref="I324:I325"/>
+    <mergeCell ref="I334:I335"/>
+    <mergeCell ref="I336:I337"/>
+    <mergeCell ref="I338:I339"/>
+    <mergeCell ref="I340:I341"/>
+    <mergeCell ref="I361:I362"/>
+    <mergeCell ref="I363:I364"/>
+    <mergeCell ref="I373:I374"/>
+    <mergeCell ref="I375:I376"/>
+    <mergeCell ref="I377:I378"/>
+    <mergeCell ref="I379:I380"/>
+    <mergeCell ref="I399:I400"/>
+    <mergeCell ref="I401:I402"/>
+    <mergeCell ref="I426:I427"/>
+    <mergeCell ref="I428:I429"/>
+    <mergeCell ref="I430:I431"/>
+    <mergeCell ref="I432:I433"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="K63:K64"/>
     <mergeCell ref="K84:K85"/>
@@ -5482,6 +6917,12 @@
     <mergeCell ref="K292:K293"/>
     <mergeCell ref="K294:K295"/>
     <mergeCell ref="K296:K299"/>
+    <mergeCell ref="M399:M400"/>
+    <mergeCell ref="M401:M402"/>
+    <mergeCell ref="M426:M427"/>
+    <mergeCell ref="M428:M429"/>
+    <mergeCell ref="M430:M431"/>
+    <mergeCell ref="M432:M433"/>
     <mergeCell ref="N47:N48"/>
     <mergeCell ref="N82:N83"/>
     <mergeCell ref="N84:N85"/>

--- a/Images/iOS/iOSGetArbitraryThreadCallStack/CallStack.xlsx
+++ b/Images/iOS/iOSGetArbitraryThreadCallStack/CallStack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29440" windowHeight="15080"/>
+    <workbookView windowWidth="29220" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>低地址</t>
   </si>
@@ -245,6 +245,168 @@
   </si>
   <si>
     <t>0x2c - 0x2f</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>0x000c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>0x0010</t>
+  </si>
+  <si>
+    <t>0x0014</t>
+  </si>
+  <si>
+    <t>0x0018</t>
+  </si>
+  <si>
+    <t>0x001c</t>
+  </si>
+  <si>
+    <t>0x0020</t>
+  </si>
+  <si>
+    <t>0x0024</t>
+  </si>
+  <si>
+    <t>0x0028</t>
+  </si>
+  <si>
+    <t>0x002c</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>0x0030</t>
+  </si>
+  <si>
+    <t>0x0034</t>
+  </si>
+  <si>
+    <t>0x0038</t>
+  </si>
+  <si>
+    <t>0x003c</t>
+  </si>
+  <si>
+    <t>0x0040</t>
+  </si>
+  <si>
+    <t>fp B(0x70)</t>
+  </si>
+  <si>
+    <t>0x0044</t>
+  </si>
+  <si>
+    <t>0x0048</t>
+  </si>
+  <si>
+    <t>x30 lr B</t>
+  </si>
+  <si>
+    <t>0x004c</t>
+  </si>
+  <si>
+    <t>0x0050</t>
+  </si>
+  <si>
+    <t>0x0054</t>
+  </si>
+  <si>
+    <t>0x0058</t>
+  </si>
+  <si>
+    <t>0x005c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>0x0060</t>
+  </si>
+  <si>
+    <t>0x0064</t>
+  </si>
+  <si>
+    <t>0x0068</t>
+  </si>
+  <si>
+    <t>0x006c</t>
+  </si>
+  <si>
+    <t>0x0070</t>
+  </si>
+  <si>
+    <t>fp A(0xa0)</t>
+  </si>
+  <si>
+    <t>0x0074</t>
+  </si>
+  <si>
+    <t>0x0078</t>
+  </si>
+  <si>
+    <t>x30 lr A</t>
+  </si>
+  <si>
+    <t>0x007c</t>
+  </si>
+  <si>
+    <t>0x0080</t>
+  </si>
+  <si>
+    <t>0x0084</t>
+  </si>
+  <si>
+    <t>0x0088</t>
+  </si>
+  <si>
+    <t>0x008c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>0x0090</t>
+  </si>
+  <si>
+    <t>0x0094</t>
+  </si>
+  <si>
+    <t>0x0098</t>
+  </si>
+  <si>
+    <t>0x009c</t>
+  </si>
+  <si>
+    <t>0x00a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fp V(?)</t>
+  </si>
+  <si>
+    <t>0x00a4</t>
+  </si>
+  <si>
+    <t>0x00a8</t>
+  </si>
+  <si>
+    <t>x30 lr V</t>
+  </si>
+  <si>
+    <t>0x00ac</t>
   </si>
 </sst>
 </file>
@@ -254,8 +416,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -279,24 +441,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +465,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,22 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,75 +582,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -510,7 +672,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,157 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,6 +853,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,9 +913,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,192 +945,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,17 +1159,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,19 +1174,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1355,10 +1505,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C3:AK433"/>
+  <dimension ref="C3:AK535"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="L402" sqref="L402"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="Q470" sqref="Q470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8"/>
@@ -1367,21 +1517,23 @@
     <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="12.6428571428571" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="12.4910714285714" customWidth="1"/>
+    <col min="7" max="7" width="10.6071428571429" customWidth="1"/>
     <col min="8" max="8" width="14.3214285714286" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="11" max="11" width="13.4107142857143" customWidth="1"/>
-    <col min="12" max="12" width="10.4196428571429" customWidth="1"/>
+    <col min="9" max="9" width="11.9107142857143" customWidth="1"/>
+    <col min="11" max="11" width="11.3482142857143" customWidth="1"/>
+    <col min="12" max="12" width="11.5267857142857" customWidth="1"/>
     <col min="13" max="13" width="12.0803571428571" customWidth="1"/>
-    <col min="14" max="14" width="11.9017857142857" customWidth="1"/>
+    <col min="14" max="14" width="10.5982142857143" customWidth="1"/>
     <col min="15" max="15" width="10.7142857142857" customWidth="1"/>
     <col min="16" max="16" width="11.5982142857143" customWidth="1"/>
     <col min="17" max="17" width="12.5535714285714" customWidth="1"/>
     <col min="18" max="18" width="7.74107142857143" customWidth="1"/>
     <col min="19" max="19" width="10.5982142857143" customWidth="1"/>
     <col min="20" max="20" width="12.3928571428571" customWidth="1"/>
-    <col min="21" max="21" width="7.74107142857143" customWidth="1"/>
+    <col min="21" max="21" width="11.1517857142857" customWidth="1"/>
+    <col min="22" max="22" width="13.8125" customWidth="1"/>
     <col min="23" max="23" width="11.1964285714286" customWidth="1"/>
+    <col min="25" max="25" width="13.3839285714286" customWidth="1"/>
     <col min="26" max="26" width="11.9375" customWidth="1"/>
     <col min="29" max="29" width="11.5625" customWidth="1"/>
     <col min="32" max="32" width="12.6696428571429" customWidth="1"/>
@@ -5491,7 +5643,7 @@
         <v>26</v>
       </c>
       <c r="I318" s="19"/>
-      <c r="J318" s="21" t="s">
+      <c r="J318" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5507,10 +5659,10 @@
       <c r="H320" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I320" s="22" t="s">
+      <c r="I320" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K320" s="21" t="s">
+      <c r="K320" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5519,10 +5671,10 @@
       <c r="H321" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I321" s="22" t="s">
+      <c r="I321" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K321" s="21" t="s">
+      <c r="K321" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5531,54 +5683,54 @@
       <c r="H322" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I322" s="25" t="s">
+      <c r="I322" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K322" s="21" t="s">
+      <c r="K322" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="323" ht="15.6" spans="5:11">
       <c r="E323" s="19"/>
-      <c r="H323" s="24" t="s">
+      <c r="H323" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I323" s="25"/>
-      <c r="K323" s="21"/>
+      <c r="I323" s="23"/>
+      <c r="K323" s="1"/>
     </row>
     <row r="324" ht="15.6" spans="5:11">
       <c r="E324" s="19"/>
-      <c r="H324" s="24" t="s">
+      <c r="H324" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I324" s="26" t="s">
+      <c r="I324" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K324" s="21" t="s">
+      <c r="K324" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="325" ht="15.6" spans="5:11">
       <c r="E325" s="19"/>
-      <c r="H325" s="24" t="s">
+      <c r="H325" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I325" s="26"/>
-      <c r="K325" s="21"/>
+      <c r="I325" s="24"/>
+      <c r="K325" s="1"/>
     </row>
     <row r="326" ht="15.6" spans="4:10">
       <c r="D326" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E326" s="19"/>
-      <c r="F326" s="21" t="s">
+      <c r="F326" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H326" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I326" s="19"/>
-      <c r="J326" s="21"/>
+      <c r="J326" s="1"/>
     </row>
     <row r="327" ht="15.6" spans="4:9">
       <c r="D327" s="20" t="s">
@@ -5601,7 +5753,7 @@
       <c r="I328" s="19"/>
     </row>
     <row r="329" ht="15.6" spans="3:9">
-      <c r="C329" s="23"/>
+      <c r="C329" s="22"/>
       <c r="D329" s="20" t="s">
         <v>31</v>
       </c>
@@ -5612,135 +5764,134 @@
       <c r="I329" s="19"/>
     </row>
     <row r="330" ht="15.6" spans="3:9">
-      <c r="C330" s="23"/>
+      <c r="C330" s="22"/>
       <c r="D330" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E330" s="19"/>
-      <c r="F330"/>
       <c r="H330" s="20" t="s">
         <v>34</v>
       </c>
       <c r="I330" s="19"/>
     </row>
     <row r="331" ht="15.6" spans="3:11">
-      <c r="C331" s="23"/>
-      <c r="D331" s="24" t="s">
+      <c r="C331" s="22"/>
+      <c r="D331" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E331" s="19"/>
-      <c r="G331" s="21"/>
-      <c r="H331" s="24" t="s">
+      <c r="G331" s="1"/>
+      <c r="H331" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I331" s="19"/>
-      <c r="K331" s="21"/>
+      <c r="K331" s="1"/>
     </row>
     <row r="332" ht="15.6" spans="3:11">
-      <c r="C332" s="23"/>
-      <c r="D332" s="24" t="s">
+      <c r="C332" s="22"/>
+      <c r="D332" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E332" s="19"/>
-      <c r="G332" s="21"/>
-      <c r="H332" s="24" t="s">
+      <c r="G332" s="1"/>
+      <c r="H332" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I332" s="19"/>
-      <c r="K332" s="21"/>
+      <c r="K332" s="1"/>
     </row>
     <row r="333" ht="15.6" spans="3:11">
-      <c r="C333" s="23"/>
-      <c r="D333" s="24" t="s">
+      <c r="C333" s="22"/>
+      <c r="D333" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E333" s="19"/>
-      <c r="G333" s="21"/>
-      <c r="H333" s="24" t="s">
+      <c r="G333" s="1"/>
+      <c r="H333" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I333" s="19"/>
-      <c r="K333" s="21"/>
+      <c r="K333" s="1"/>
     </row>
     <row r="334" ht="15.6" spans="3:11">
-      <c r="C334" s="23"/>
+      <c r="C334" s="22"/>
       <c r="D334" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E334" s="25" t="s">
+      <c r="E334" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G334" s="21" t="s">
+      <c r="G334" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H334" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I334" s="25" t="s">
+      <c r="I334" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K334" s="21" t="s">
+      <c r="K334" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="335" ht="15.6" spans="3:9">
-      <c r="C335" s="23"/>
-      <c r="D335" s="24" t="s">
+      <c r="C335" s="22"/>
+      <c r="D335" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E335" s="25"/>
-      <c r="H335" s="24" t="s">
+      <c r="E335" s="23"/>
+      <c r="H335" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I335" s="25"/>
+      <c r="I335" s="23"/>
     </row>
     <row r="336" ht="15.6" spans="3:11">
-      <c r="C336" s="23"/>
-      <c r="D336" s="24" t="s">
+      <c r="C336" s="22"/>
+      <c r="D336" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E336" s="26" t="s">
+      <c r="E336" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G336" s="21" t="s">
+      <c r="G336" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H336" s="24" t="s">
+      <c r="H336" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I336" s="26" t="s">
+      <c r="I336" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K336" s="21" t="s">
+      <c r="K336" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="337" ht="15.6" spans="3:9">
-      <c r="C337" s="23"/>
+      <c r="C337" s="22"/>
       <c r="D337" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E337" s="26"/>
+      <c r="E337" s="24"/>
       <c r="H337" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I337" s="26"/>
+      <c r="I337" s="24"/>
     </row>
     <row r="338" ht="15.6" spans="3:11">
-      <c r="C338" s="23"/>
-      <c r="D338" s="21" t="s">
+      <c r="C338" s="22"/>
+      <c r="D338" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E338" s="27" t="s">
+      <c r="E338" s="25" t="s">
         <v>50</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H338" s="21" t="s">
+      <c r="H338" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I338" s="27" t="s">
+      <c r="I338" s="25" t="s">
         <v>50</v>
       </c>
       <c r="K338" s="1" t="s">
@@ -5748,62 +5899,62 @@
       </c>
     </row>
     <row r="339" ht="15.6" spans="3:9">
-      <c r="C339" s="23"/>
-      <c r="D339" s="21" t="s">
+      <c r="C339" s="22"/>
+      <c r="D339" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E339" s="28"/>
-      <c r="H339" s="21" t="s">
+      <c r="E339" s="25"/>
+      <c r="H339" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I339" s="28"/>
+      <c r="I339" s="25"/>
     </row>
     <row r="340" ht="15.6" spans="3:9">
-      <c r="C340" s="23"/>
-      <c r="D340" s="21" t="s">
+      <c r="C340" s="22"/>
+      <c r="D340" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E340" s="29" t="s">
+      <c r="E340" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H340" s="21" t="s">
+      <c r="H340" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I340" s="29" t="s">
+      <c r="I340" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="341" ht="15.6" spans="3:9">
-      <c r="C341" s="23"/>
-      <c r="D341" s="21" t="s">
+      <c r="C341" s="22"/>
+      <c r="D341" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E341" s="30"/>
-      <c r="H341" s="21" t="s">
+      <c r="E341" s="26"/>
+      <c r="H341" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I341" s="30"/>
+      <c r="I341" s="26"/>
     </row>
     <row r="342" ht="15.6" spans="3:3">
-      <c r="C342" s="23"/>
+      <c r="C342" s="22"/>
     </row>
     <row r="343" ht="15.6" spans="3:3">
-      <c r="C343" s="23"/>
+      <c r="C343" s="22"/>
     </row>
     <row r="344" ht="15.6" spans="3:3">
-      <c r="C344" s="23"/>
-    </row>
-    <row r="345" spans="3:3">
-      <c r="C345" s="23"/>
-    </row>
-    <row r="346" spans="3:3">
-      <c r="C346" s="23"/>
-    </row>
-    <row r="347" spans="3:3">
-      <c r="C347" s="23"/>
+      <c r="C344" s="22"/>
+    </row>
+    <row r="345" ht="15.6" spans="3:3">
+      <c r="C345" s="22"/>
+    </row>
+    <row r="346" ht="15.6" spans="3:3">
+      <c r="C346" s="22"/>
+    </row>
+    <row r="347" ht="15.6" spans="3:3">
+      <c r="C347" s="22"/>
     </row>
     <row r="348" ht="15.6" spans="3:3">
-      <c r="C348" s="23"/>
+      <c r="C348" s="22"/>
     </row>
     <row r="349" ht="15.6" spans="5:10">
       <c r="E349" s="19"/>
@@ -5811,7 +5962,7 @@
         <v>26</v>
       </c>
       <c r="I349" s="19"/>
-      <c r="J349" s="21" t="s">
+      <c r="J349" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5845,32 +5996,32 @@
     </row>
     <row r="354" ht="15.6" spans="5:9">
       <c r="E354" s="19"/>
-      <c r="H354" s="24" t="s">
+      <c r="H354" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I354" s="19"/>
     </row>
     <row r="355" ht="15.6" spans="5:11">
       <c r="E355" s="19"/>
-      <c r="H355" s="24" t="s">
+      <c r="H355" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I355" s="22">
+      <c r="I355" s="21">
         <v>6</v>
       </c>
-      <c r="K355" s="21" t="s">
+      <c r="K355" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="356" ht="15.6" spans="5:11">
       <c r="E356" s="19"/>
-      <c r="H356" s="24" t="s">
+      <c r="H356" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I356" s="22">
+      <c r="I356" s="21">
         <v>5</v>
       </c>
-      <c r="K356" s="21" t="s">
+      <c r="K356" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5879,34 +6030,34 @@
       <c r="H357" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I357" s="22">
+      <c r="I357" s="21">
         <v>4</v>
       </c>
-      <c r="K357" s="21" t="s">
+      <c r="K357" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="358" ht="15.6" spans="5:11">
       <c r="E358" s="19"/>
-      <c r="H358" s="24" t="s">
+      <c r="H358" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I358" s="22">
+      <c r="I358" s="21">
         <v>3</v>
       </c>
-      <c r="K358" s="21" t="s">
+      <c r="K358" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="359" ht="15.6" spans="5:11">
       <c r="E359" s="19"/>
-      <c r="H359" s="24" t="s">
+      <c r="H359" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I359" s="22">
-        <v>2</v>
-      </c>
-      <c r="K359" s="21" t="s">
+      <c r="I359" s="21">
+        <v>2</v>
+      </c>
+      <c r="K359" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5915,71 +6066,71 @@
       <c r="H360" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I360" s="22">
+      <c r="I360" s="21">
         <v>1</v>
       </c>
-      <c r="K360" s="21" t="s">
+      <c r="K360" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="361" ht="15.6" spans="5:11">
       <c r="E361" s="19"/>
-      <c r="H361" s="21" t="s">
+      <c r="H361" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I361" s="25" t="s">
+      <c r="I361" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K361" s="21" t="s">
+      <c r="K361" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="362" ht="15.6" spans="5:9">
       <c r="E362" s="19"/>
-      <c r="H362" s="21" t="s">
+      <c r="H362" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I362" s="25"/>
+      <c r="I362" s="23"/>
     </row>
     <row r="363" ht="15.6" spans="5:11">
       <c r="E363" s="19"/>
-      <c r="H363" s="21" t="s">
+      <c r="H363" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I363" s="26" t="s">
+      <c r="I363" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K363" s="21" t="s">
+      <c r="K363" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="364" ht="15.6" spans="5:9">
       <c r="E364" s="19"/>
-      <c r="H364" s="21" t="s">
+      <c r="H364" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I364" s="26"/>
+      <c r="I364" s="24"/>
     </row>
     <row r="365" ht="15.6" spans="4:12">
       <c r="D365" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E365" s="31">
+      <c r="E365" s="27">
         <v>7</v>
       </c>
-      <c r="F365" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G365" s="21" t="s">
+      <c r="F365" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G365" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H365" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I365" s="31">
+      <c r="I365" s="27">
         <v>7</v>
       </c>
-      <c r="K365" s="21" t="s">
+      <c r="K365" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L365" t="s">
@@ -5990,19 +6141,19 @@
       <c r="D366" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E366" s="31">
+      <c r="E366" s="27">
         <v>8</v>
       </c>
-      <c r="G366" s="21" t="s">
+      <c r="G366" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H366" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I366" s="31">
+      <c r="I366" s="27">
         <v>8</v>
       </c>
-      <c r="K366" s="21" t="s">
+      <c r="K366" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L366" t="s">
@@ -6013,20 +6164,19 @@
       <c r="D367" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E367" s="31">
+      <c r="E367" s="27">
         <v>9</v>
       </c>
-      <c r="G367" s="21" t="s">
+      <c r="G367" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H367" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I367" s="31">
+      <c r="I367" s="27">
         <v>9</v>
       </c>
-      <c r="J367"/>
-      <c r="K367" s="21" t="s">
+      <c r="K367" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L367" t="s">
@@ -6054,31 +6204,31 @@
       <c r="I369" s="19"/>
     </row>
     <row r="370" ht="15.6" spans="4:9">
-      <c r="D370" s="24" t="s">
+      <c r="D370" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E370" s="19"/>
-      <c r="H370" s="24" t="s">
+      <c r="H370" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I370" s="19"/>
     </row>
     <row r="371" ht="15.6" spans="4:9">
-      <c r="D371" s="24" t="s">
+      <c r="D371" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E371" s="19"/>
-      <c r="H371" s="24" t="s">
+      <c r="H371" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I371" s="19"/>
     </row>
     <row r="372" ht="15.6" spans="4:9">
-      <c r="D372" s="24" t="s">
+      <c r="D372" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E372" s="19"/>
-      <c r="H372" s="24" t="s">
+      <c r="H372" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I372" s="19"/>
@@ -6087,7 +6237,7 @@
       <c r="D373" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E373" s="25" t="s">
+      <c r="E373" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G373" s="1" t="s">
@@ -6096,7 +6246,7 @@
       <c r="H373" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I373" s="25" t="s">
+      <c r="I373" s="23" t="s">
         <v>35</v>
       </c>
       <c r="K373" s="1" t="s">
@@ -6104,29 +6254,29 @@
       </c>
     </row>
     <row r="374" ht="15.6" spans="4:9">
-      <c r="D374" s="24" t="s">
+      <c r="D374" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E374" s="25"/>
-      <c r="H374" s="24" t="s">
+      <c r="E374" s="23"/>
+      <c r="H374" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I374" s="25"/>
+      <c r="I374" s="23"/>
     </row>
     <row r="375" ht="15.6" spans="4:11">
-      <c r="D375" s="24" t="s">
+      <c r="D375" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E375" s="26" t="s">
+      <c r="E375" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G375" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H375" s="24" t="s">
+      <c r="H375" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I375" s="26" t="s">
+      <c r="I375" s="24" t="s">
         <v>39</v>
       </c>
       <c r="K375" s="1" t="s">
@@ -6137,26 +6287,26 @@
       <c r="D376" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E376" s="26"/>
+      <c r="E376" s="24"/>
       <c r="H376" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I376" s="26"/>
+      <c r="I376" s="24"/>
     </row>
     <row r="377" spans="4:11">
-      <c r="D377" s="21" t="s">
+      <c r="D377" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E377" s="27" t="s">
+      <c r="E377" s="25" t="s">
         <v>50</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H377" s="21" t="s">
+      <c r="H377" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I377" s="27" t="s">
+      <c r="I377" s="25" t="s">
         <v>50</v>
       </c>
       <c r="K377" s="1" t="s">
@@ -6164,38 +6314,38 @@
       </c>
     </row>
     <row r="378" spans="4:9">
-      <c r="D378" s="21" t="s">
+      <c r="D378" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E378" s="28"/>
-      <c r="H378" s="21" t="s">
+      <c r="E378" s="25"/>
+      <c r="H378" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I378" s="28"/>
+      <c r="I378" s="25"/>
     </row>
     <row r="379" spans="4:9">
-      <c r="D379" s="21" t="s">
+      <c r="D379" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E379" s="29" t="s">
+      <c r="E379" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H379" s="21" t="s">
+      <c r="H379" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I379" s="29" t="s">
+      <c r="I379" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="380" spans="4:9">
-      <c r="D380" s="21" t="s">
+      <c r="D380" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E380" s="30"/>
-      <c r="H380" s="21" t="s">
+      <c r="E380" s="26"/>
+      <c r="H380" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I380" s="30"/>
+      <c r="I380" s="26"/>
     </row>
     <row r="386" ht="15.6" spans="4:13">
       <c r="D386" s="1"/>
@@ -6262,28 +6412,28 @@
         <v>26</v>
       </c>
       <c r="E395" s="19"/>
-      <c r="F395" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G395" s="21"/>
+      <c r="F395" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G395" s="1"/>
       <c r="H395" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I395" s="19"/>
-      <c r="J395" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K395" s="21"/>
+      <c r="J395" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K395" s="1"/>
       <c r="L395" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M395" s="33" t="s">
+      <c r="M395" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N395" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O395" s="21" t="s">
+      <c r="N395" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O395" s="20" t="s">
         <v>63</v>
       </c>
       <c r="P395" s="1"/>
@@ -6293,174 +6443,169 @@
         <v>27</v>
       </c>
       <c r="E396" s="19"/>
-      <c r="G396" s="21"/>
+      <c r="G396" s="1"/>
       <c r="H396" s="20" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="19"/>
-      <c r="K396" s="21"/>
+      <c r="K396" s="1"/>
       <c r="L396" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M396" s="33" t="s">
+      <c r="M396" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="O396" s="21" t="s">
+      <c r="O396" s="20" t="s">
         <v>66</v>
       </c>
       <c r="P396" s="20"/>
-      <c r="Q396" s="21"/>
-      <c r="R396" s="21"/>
-      <c r="S396" s="21"/>
+      <c r="Q396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
     </row>
     <row r="397" ht="15.6" spans="4:19">
       <c r="D397" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E397" s="19"/>
-      <c r="G397" s="21"/>
+      <c r="G397" s="1"/>
       <c r="H397" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I397" s="32" t="s">
+      <c r="I397" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K397" s="21" t="s">
+      <c r="K397" s="20" t="s">
         <v>30</v>
       </c>
       <c r="L397" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M397" s="32" t="s">
+      <c r="M397" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O397" s="21" t="s">
+      <c r="O397" s="20" t="s">
         <v>30</v>
       </c>
       <c r="P397" s="20"/>
-      <c r="Q397"/>
-      <c r="R397" s="21"/>
-      <c r="S397" s="21"/>
+      <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
     </row>
     <row r="398" ht="15.6" spans="4:19">
       <c r="D398" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E398" s="19"/>
-      <c r="G398" s="21"/>
+      <c r="G398" s="1"/>
       <c r="H398" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I398" s="32" t="s">
+      <c r="I398" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K398" s="21" t="s">
+      <c r="K398" s="20" t="s">
         <v>33</v>
       </c>
       <c r="L398" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M398" s="32" t="s">
+      <c r="M398" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O398" s="21" t="s">
+      <c r="O398" s="20" t="s">
         <v>33</v>
       </c>
       <c r="P398" s="20"/>
-      <c r="Q398"/>
-      <c r="R398" s="21"/>
-      <c r="S398" s="21"/>
+      <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
     </row>
     <row r="399" ht="15.6" spans="4:19">
       <c r="D399" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E399" s="19"/>
-      <c r="G399" s="21"/>
+      <c r="G399" s="1"/>
       <c r="H399" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I399" s="25" t="s">
+      <c r="I399" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K399" s="21" t="s">
+      <c r="K399" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L399" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M399" s="25" t="s">
+      <c r="M399" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O399" s="21" t="s">
+      <c r="O399" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P399" s="20"/>
-      <c r="Q399"/>
-      <c r="R399" s="21"/>
-      <c r="S399" s="21"/>
+      <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
     </row>
     <row r="400" ht="15.6" spans="4:19">
-      <c r="D400" s="24" t="s">
+      <c r="D400" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E400" s="19"/>
-      <c r="H400" s="24" t="s">
+      <c r="H400" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I400" s="25"/>
-      <c r="L400" s="24" t="s">
+      <c r="I400" s="23"/>
+      <c r="L400" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="M400" s="25"/>
+      <c r="M400" s="23"/>
       <c r="P400" s="20"/>
-      <c r="Q400"/>
-      <c r="R400" s="21"/>
-      <c r="S400" s="21"/>
+      <c r="R400" s="1"/>
+      <c r="S400" s="1"/>
     </row>
     <row r="401" ht="15.6" spans="4:16">
-      <c r="D401" s="24" t="s">
+      <c r="D401" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E401" s="19"/>
-      <c r="G401" s="21"/>
-      <c r="H401" s="24" t="s">
+      <c r="G401" s="1"/>
+      <c r="H401" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I401" s="26" t="s">
+      <c r="I401" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K401" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L401" s="24" t="s">
+      <c r="K401" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L401" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M401" s="26" t="s">
+      <c r="M401" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="O401" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P401" s="24"/>
+      <c r="O401" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P401" s="20"/>
     </row>
     <row r="402" ht="15.6" spans="4:19">
-      <c r="D402" s="24" t="s">
+      <c r="D402" s="20" t="s">
         <v>75</v>
       </c>
       <c r="E402" s="19"/>
-      <c r="H402" s="24" t="s">
+      <c r="H402" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I402" s="26"/>
-      <c r="L402" s="24" t="s">
+      <c r="I402" s="24"/>
+      <c r="L402" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M402" s="26"/>
-      <c r="P402" s="24"/>
-      <c r="Q402"/>
-      <c r="R402" s="21"/>
-      <c r="S402" s="21"/>
+      <c r="M402" s="24"/>
+      <c r="P402" s="20"/>
+      <c r="R402" s="1"/>
+      <c r="S402" s="1"/>
     </row>
     <row r="403" ht="15.6" spans="4:16">
       <c r="D403" s="20"/>
@@ -6472,28 +6617,27 @@
       <c r="L403" s="20"/>
       <c r="M403" s="20"/>
       <c r="O403" s="1"/>
-      <c r="P403" s="24"/>
+      <c r="P403" s="20"/>
     </row>
     <row r="404" ht="15.6" spans="4:19">
-      <c r="D404" s="24"/>
-      <c r="E404" s="24"/>
-      <c r="H404" s="24"/>
-      <c r="I404" s="24"/>
-      <c r="L404" s="24"/>
-      <c r="M404" s="24"/>
+      <c r="D404" s="20"/>
+      <c r="E404" s="20"/>
+      <c r="H404" s="20"/>
+      <c r="I404" s="20"/>
+      <c r="L404" s="20"/>
+      <c r="M404" s="20"/>
       <c r="P404" s="20"/>
-      <c r="Q404"/>
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
     </row>
     <row r="405" ht="15.6" spans="4:16">
-      <c r="D405" s="24"/>
-      <c r="E405" s="24"/>
-      <c r="H405" s="24"/>
-      <c r="I405" s="24"/>
-      <c r="L405" s="24"/>
-      <c r="M405" s="24"/>
-      <c r="P405" s="24"/>
+      <c r="D405" s="20"/>
+      <c r="E405" s="20"/>
+      <c r="H405" s="20"/>
+      <c r="I405" s="20"/>
+      <c r="L405" s="20"/>
+      <c r="M405" s="20"/>
+      <c r="P405" s="20"/>
     </row>
     <row r="406" ht="15.6" spans="4:16">
       <c r="D406" s="20"/>
@@ -6502,7 +6646,7 @@
       <c r="I406" s="20"/>
       <c r="L406" s="20"/>
       <c r="M406" s="20"/>
-      <c r="P406" s="24"/>
+      <c r="P406" s="20"/>
     </row>
     <row r="407" ht="15.6" spans="16:16">
       <c r="P407" s="20"/>
@@ -6569,28 +6713,28 @@
         <v>26</v>
       </c>
       <c r="E422" s="19"/>
-      <c r="F422" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G422" s="21"/>
+      <c r="F422" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G422" s="1"/>
       <c r="H422" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I422" s="19"/>
-      <c r="J422" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K422" s="21"/>
+      <c r="J422" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K422" s="1"/>
       <c r="L422" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M422" s="33" t="s">
+      <c r="M422" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N422" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O422" s="21" t="s">
+      <c r="N422" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O422" s="20" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6599,19 +6743,19 @@
         <v>27</v>
       </c>
       <c r="E423" s="19"/>
-      <c r="G423" s="21"/>
+      <c r="G423" s="1"/>
       <c r="H423" s="20" t="s">
         <v>27</v>
       </c>
       <c r="I423" s="19"/>
-      <c r="K423" s="21"/>
+      <c r="K423" s="1"/>
       <c r="L423" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M423" s="33" t="s">
+      <c r="M423" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="O423" s="21" t="s">
+      <c r="O423" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6620,24 +6764,23 @@
         <v>28</v>
       </c>
       <c r="E424" s="19"/>
-      <c r="F424"/>
-      <c r="G424" s="21"/>
+      <c r="G424" s="1"/>
       <c r="H424" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I424" s="32" t="s">
+      <c r="I424" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K424" s="21" t="s">
+      <c r="K424" s="20" t="s">
         <v>30</v>
       </c>
       <c r="L424" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M424" s="32" t="s">
+      <c r="M424" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="O424" s="21" t="s">
+      <c r="O424" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6646,23 +6789,23 @@
         <v>31</v>
       </c>
       <c r="E425" s="19"/>
-      <c r="G425" s="21"/>
+      <c r="G425" s="1"/>
       <c r="H425" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I425" s="32" t="s">
+      <c r="I425" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K425" s="21" t="s">
+      <c r="K425" s="20" t="s">
         <v>33</v>
       </c>
       <c r="L425" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M425" s="32" t="s">
+      <c r="M425" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O425" s="21" t="s">
+      <c r="O425" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6671,139 +6814,143 @@
         <v>34</v>
       </c>
       <c r="E426" s="19"/>
-      <c r="G426" s="21"/>
+      <c r="G426" s="1"/>
       <c r="H426" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I426" s="25" t="s">
+      <c r="I426" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K426" s="21" t="s">
+      <c r="K426" s="20" t="s">
         <v>36</v>
       </c>
       <c r="L426" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M426" s="25" t="s">
+      <c r="M426" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O426" s="21" t="s">
+      <c r="O426" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="427" ht="15.6" spans="4:13">
-      <c r="D427" s="24" t="s">
+    <row r="427" ht="15.6" spans="4:15">
+      <c r="D427" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E427" s="19"/>
-      <c r="H427" s="24" t="s">
+      <c r="H427" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I427" s="25"/>
-      <c r="L427" s="24" t="s">
+      <c r="I427" s="23"/>
+      <c r="K427" s="22"/>
+      <c r="L427" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="M427" s="25"/>
+      <c r="M427" s="23"/>
+      <c r="O427" s="22"/>
     </row>
     <row r="428" ht="15.6" spans="4:15">
-      <c r="D428" s="24" t="s">
+      <c r="D428" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E428" s="19"/>
-      <c r="G428" s="21"/>
-      <c r="H428" s="24" t="s">
+      <c r="G428" s="1"/>
+      <c r="H428" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I428" s="26" t="s">
+      <c r="I428" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K428" s="21" t="s">
+      <c r="K428" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L428" s="24" t="s">
+      <c r="L428" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M428" s="26" t="s">
+      <c r="M428" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="O428" s="21" t="s">
+      <c r="O428" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="429" ht="15.6" spans="4:13">
-      <c r="D429" s="24" t="s">
+    <row r="429" ht="15.6" spans="4:15">
+      <c r="D429" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E429" s="19"/>
-      <c r="H429" s="24" t="s">
+      <c r="H429" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I429" s="26"/>
-      <c r="L429" s="24" t="s">
+      <c r="I429" s="24"/>
+      <c r="K429" s="22"/>
+      <c r="L429" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M429" s="26"/>
+      <c r="M429" s="24"/>
+      <c r="O429" s="22"/>
     </row>
     <row r="430" ht="15.6" spans="4:15">
       <c r="D430" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E430" s="27" t="s">
+      <c r="E430" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G430" s="1" t="s">
+      <c r="G430" s="20" t="s">
         <v>51</v>
       </c>
       <c r="H430" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I430" s="27" t="s">
+      <c r="I430" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K430" s="1" t="s">
+      <c r="K430" s="20" t="s">
         <v>51</v>
       </c>
       <c r="L430" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M430" s="27" t="s">
+      <c r="M430" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O430" s="1" t="s">
+      <c r="O430" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="431" ht="15.6" spans="4:13">
-      <c r="D431" s="24" t="s">
+      <c r="D431" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E431" s="28"/>
-      <c r="H431" s="24" t="s">
+      <c r="E431" s="25"/>
+      <c r="H431" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I431" s="28"/>
-      <c r="L431" s="24" t="s">
+      <c r="I431" s="25"/>
+      <c r="L431" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M431" s="28"/>
+      <c r="M431" s="25"/>
     </row>
     <row r="432" ht="15.6" spans="4:13">
-      <c r="D432" s="24" t="s">
+      <c r="D432" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E432" s="29" t="s">
+      <c r="E432" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H432" s="24" t="s">
+      <c r="H432" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I432" s="29" t="s">
+      <c r="I432" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L432" s="24" t="s">
+      <c r="L432" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M432" s="29" t="s">
+      <c r="M432" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6811,18 +6958,1101 @@
       <c r="D433" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E433" s="30"/>
+      <c r="E433" s="26"/>
       <c r="H433" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I433" s="30"/>
+      <c r="I433" s="26"/>
       <c r="L433" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="M433" s="30"/>
+      <c r="M433" s="26"/>
+    </row>
+    <row r="442" ht="15.6" spans="4:15">
+      <c r="D442" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E442" s="19"/>
+      <c r="F442"/>
+      <c r="H442" s="19"/>
+      <c r="K442" s="19"/>
+      <c r="N442" s="19"/>
+      <c r="O442" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" ht="15.6" spans="4:14">
+      <c r="D443" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E443" s="19"/>
+      <c r="H443" s="19"/>
+      <c r="K443" s="19"/>
+      <c r="N443" s="19"/>
+    </row>
+    <row r="444" ht="15.6" spans="4:14">
+      <c r="D444" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E444" s="19"/>
+      <c r="H444" s="19"/>
+      <c r="K444" s="19"/>
+      <c r="N444" s="19"/>
+    </row>
+    <row r="445" ht="15.6" spans="4:14">
+      <c r="D445" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E445" s="28"/>
+      <c r="H445" s="28"/>
+      <c r="K445" s="28"/>
+      <c r="N445" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="446" ht="15.6" spans="4:14">
+      <c r="D446" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E446" s="28"/>
+      <c r="H446" s="28"/>
+      <c r="K446" s="28"/>
+      <c r="N446" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="447" ht="15.6" spans="4:14">
+      <c r="D447" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E447" s="28"/>
+      <c r="H447" s="28"/>
+      <c r="K447" s="28"/>
+      <c r="N447" s="23"/>
+    </row>
+    <row r="448" ht="15.6" spans="4:14">
+      <c r="D448" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E448" s="28"/>
+      <c r="H448" s="28"/>
+      <c r="K448" s="28"/>
+      <c r="N448" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="449" ht="15.6" spans="4:14">
+      <c r="D449" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E449" s="28"/>
+      <c r="H449" s="28"/>
+      <c r="K449" s="28"/>
+      <c r="N449" s="24"/>
+    </row>
+    <row r="450" ht="15.6" spans="4:14">
+      <c r="D450" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E450" s="19"/>
+      <c r="H450" s="19"/>
+      <c r="I450"/>
+      <c r="K450" s="19"/>
+      <c r="L450" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N450" s="19"/>
+    </row>
+    <row r="451" ht="15.6" spans="4:14">
+      <c r="D451" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E451" s="19"/>
+      <c r="H451" s="19"/>
+      <c r="K451" s="19"/>
+      <c r="N451" s="19"/>
+    </row>
+    <row r="452" ht="15.6" spans="4:14">
+      <c r="D452" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E452" s="19"/>
+      <c r="H452" s="19"/>
+      <c r="K452" s="19"/>
+      <c r="N452" s="19"/>
+    </row>
+    <row r="453" ht="15.6" spans="4:14">
+      <c r="D453" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E453" s="28"/>
+      <c r="H453" s="28"/>
+      <c r="K453" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="N453" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="454" ht="15.6" spans="4:14">
+      <c r="D454" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E454" s="28"/>
+      <c r="H454" s="28"/>
+      <c r="K454" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N454" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="455" ht="15.6" spans="4:14">
+      <c r="D455" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E455" s="28"/>
+      <c r="H455" s="28"/>
+      <c r="K455" s="23"/>
+      <c r="N455" s="23"/>
+    </row>
+    <row r="456" ht="15.6" spans="4:14">
+      <c r="D456" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E456" s="28"/>
+      <c r="H456" s="28"/>
+      <c r="K456" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N456" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="457" ht="15.6" spans="4:14">
+      <c r="D457" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E457" s="28"/>
+      <c r="H457" s="28"/>
+      <c r="K457" s="24"/>
+      <c r="N457" s="24"/>
+    </row>
+    <row r="458" ht="15.6" spans="4:16">
+      <c r="D458" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E458" s="28"/>
+      <c r="G458" s="20"/>
+      <c r="H458" s="28"/>
+      <c r="J458" s="20"/>
+      <c r="K458" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="M458" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N458" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P458" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="459" ht="15.6" spans="4:14">
+      <c r="D459" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E459" s="28"/>
+      <c r="H459" s="28"/>
+      <c r="K459" s="25"/>
+      <c r="N459" s="25"/>
+    </row>
+    <row r="460" ht="15.6" spans="4:14">
+      <c r="D460" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E460" s="28"/>
+      <c r="H460" s="28"/>
+      <c r="K460" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N460" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="461" ht="15.6" spans="4:14">
+      <c r="D461" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E461" s="28"/>
+      <c r="H461" s="28"/>
+      <c r="K461" s="26"/>
+      <c r="N461" s="26"/>
+    </row>
+    <row r="462" ht="15.6" spans="4:14">
+      <c r="D462" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E462" s="19"/>
+      <c r="H462" s="19"/>
+      <c r="I462" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K462" s="19"/>
+      <c r="L462"/>
+      <c r="N462" s="19"/>
+    </row>
+    <row r="463" ht="15.6" spans="4:14">
+      <c r="D463" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E463" s="19"/>
+      <c r="H463" s="19"/>
+      <c r="K463" s="19"/>
+      <c r="N463" s="19"/>
+    </row>
+    <row r="464" ht="15.6" spans="4:14">
+      <c r="D464" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E464" s="19"/>
+      <c r="H464" s="19"/>
+      <c r="K464" s="19"/>
+      <c r="N464" s="19"/>
+    </row>
+    <row r="465" ht="15.6" spans="4:14">
+      <c r="D465" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E465" s="28"/>
+      <c r="H465" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K465" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N465" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="466" ht="15.6" spans="4:14">
+      <c r="D466" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E466" s="28"/>
+      <c r="H466" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K466" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N466" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="467" ht="15.6" spans="4:14">
+      <c r="D467" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E467" s="28"/>
+      <c r="H467" s="23"/>
+      <c r="K467" s="23"/>
+      <c r="N467" s="23"/>
+    </row>
+    <row r="468" ht="15.6" spans="4:14">
+      <c r="D468" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E468" s="28"/>
+      <c r="H468" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K468" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N468" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="469" ht="15.6" spans="4:14">
+      <c r="D469" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E469" s="28"/>
+      <c r="H469" s="24"/>
+      <c r="K469" s="24"/>
+      <c r="N469" s="24"/>
+    </row>
+    <row r="470" ht="15.6" spans="4:14">
+      <c r="D470" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E470" s="28"/>
+      <c r="G470" s="20"/>
+      <c r="H470" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J470" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K470" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="M470" s="20"/>
+      <c r="N470" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="471" ht="15.6" spans="4:14">
+      <c r="D471" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E471" s="28"/>
+      <c r="H471" s="25"/>
+      <c r="K471" s="25"/>
+      <c r="N471" s="25"/>
+    </row>
+    <row r="472" ht="15.6" spans="4:14">
+      <c r="D472" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E472" s="28"/>
+      <c r="H472" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K472" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N472" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="473" ht="15.6" spans="4:14">
+      <c r="D473" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E473" s="28"/>
+      <c r="H473" s="26"/>
+      <c r="K473" s="26"/>
+      <c r="N473" s="26"/>
+    </row>
+    <row r="474" ht="15.6" spans="4:14">
+      <c r="D474" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E474" s="19"/>
+      <c r="F474" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G474" s="1"/>
+      <c r="H474" s="19"/>
+      <c r="J474" s="1"/>
+      <c r="K474" s="19"/>
+      <c r="M474" s="1"/>
+      <c r="N474" s="19"/>
+    </row>
+    <row r="475" ht="15.6" spans="4:14">
+      <c r="D475" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E475" s="19"/>
+      <c r="G475" s="1"/>
+      <c r="H475" s="19"/>
+      <c r="J475" s="1"/>
+      <c r="K475" s="19"/>
+      <c r="M475" s="1"/>
+      <c r="N475" s="19"/>
+    </row>
+    <row r="476" ht="15.6" spans="4:14">
+      <c r="D476" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E476" s="19"/>
+      <c r="G476" s="1"/>
+      <c r="H476" s="19"/>
+      <c r="J476" s="1"/>
+      <c r="K476" s="19"/>
+      <c r="M476" s="1"/>
+      <c r="N476" s="19"/>
+    </row>
+    <row r="477" ht="15.6" spans="4:14">
+      <c r="D477" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E477" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G477" s="1"/>
+      <c r="H477" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="J477" s="1"/>
+      <c r="K477" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M477" s="1"/>
+      <c r="N477" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="478" ht="15.6" spans="4:14">
+      <c r="D478" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E478" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G478" s="1"/>
+      <c r="H478" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J478" s="1"/>
+      <c r="K478" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M478" s="1"/>
+      <c r="N478" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="479" ht="15.6" spans="4:14">
+      <c r="D479" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E479" s="23"/>
+      <c r="H479" s="23"/>
+      <c r="K479" s="23"/>
+      <c r="N479" s="23"/>
+    </row>
+    <row r="480" ht="15.6" spans="4:14">
+      <c r="D480" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E480" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G480" s="1"/>
+      <c r="H480" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J480" s="1"/>
+      <c r="K480" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M480" s="1"/>
+      <c r="N480" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="481" ht="15.6" spans="4:14">
+      <c r="D481" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E481" s="24"/>
+      <c r="H481" s="24"/>
+      <c r="K481" s="24"/>
+      <c r="N481" s="24"/>
+    </row>
+    <row r="482" ht="15.6" spans="4:14">
+      <c r="D482" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E482" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G482" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H482" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J482" s="20"/>
+      <c r="K482" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M482" s="20"/>
+      <c r="N482" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="483" ht="15.6" spans="4:14">
+      <c r="D483" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E483" s="25"/>
+      <c r="H483" s="25"/>
+      <c r="K483" s="25"/>
+      <c r="N483" s="25"/>
+    </row>
+    <row r="484" ht="15.6" spans="4:14">
+      <c r="D484" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E484" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H484" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K484" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="N484" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="485" ht="15.6" spans="4:14">
+      <c r="D485" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E485" s="26"/>
+      <c r="H485" s="26"/>
+      <c r="K485" s="26"/>
+      <c r="N485" s="26"/>
+    </row>
+    <row r="492" ht="15.6" spans="4:14">
+      <c r="D492" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E492" s="19"/>
+      <c r="F492" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H492" s="19"/>
+      <c r="K492" s="19"/>
+      <c r="N492" s="19"/>
+    </row>
+    <row r="493" ht="15.6" spans="4:14">
+      <c r="D493" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E493" s="19"/>
+      <c r="H493" s="19"/>
+      <c r="K493" s="19"/>
+      <c r="N493" s="19"/>
+    </row>
+    <row r="494" ht="15.6" spans="4:14">
+      <c r="D494" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E494" s="19"/>
+      <c r="H494" s="19"/>
+      <c r="K494" s="19"/>
+      <c r="N494" s="19"/>
+    </row>
+    <row r="495" ht="15.6" spans="4:14">
+      <c r="D495" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E495" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H495" s="28"/>
+      <c r="K495" s="28"/>
+      <c r="N495" s="28"/>
+    </row>
+    <row r="496" ht="15.6" spans="4:14">
+      <c r="D496" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E496" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H496" s="28"/>
+      <c r="K496" s="28"/>
+      <c r="N496" s="28"/>
+    </row>
+    <row r="497" ht="15.6" spans="4:14">
+      <c r="D497" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E497" s="23"/>
+      <c r="H497" s="28"/>
+      <c r="K497" s="28"/>
+      <c r="N497" s="28"/>
+    </row>
+    <row r="498" ht="15.6" spans="4:14">
+      <c r="D498" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E498" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H498" s="28"/>
+      <c r="K498" s="28"/>
+      <c r="N498" s="28"/>
+    </row>
+    <row r="499" ht="15.6" spans="4:14">
+      <c r="D499" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E499" s="24"/>
+      <c r="H499" s="28"/>
+      <c r="K499" s="28"/>
+      <c r="N499" s="28"/>
+    </row>
+    <row r="500" ht="15.6" spans="4:14">
+      <c r="D500" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E500" s="19"/>
+      <c r="H500" s="19"/>
+      <c r="I500" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K500" s="19"/>
+      <c r="N500" s="19"/>
+    </row>
+    <row r="501" ht="15.6" spans="4:14">
+      <c r="D501" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E501" s="19"/>
+      <c r="H501" s="19"/>
+      <c r="K501" s="19"/>
+      <c r="N501" s="19"/>
+    </row>
+    <row r="502" ht="15.6" spans="4:14">
+      <c r="D502" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E502" s="19"/>
+      <c r="H502" s="19"/>
+      <c r="K502" s="19"/>
+      <c r="N502" s="19"/>
+    </row>
+    <row r="503" ht="15.6" spans="4:14">
+      <c r="D503" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E503" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H503" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K503" s="28"/>
+      <c r="N503" s="28"/>
+    </row>
+    <row r="504" ht="15.6" spans="4:14">
+      <c r="D504" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E504" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H504" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K504" s="28"/>
+      <c r="N504" s="28"/>
+    </row>
+    <row r="505" ht="15.6" spans="4:14">
+      <c r="D505" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E505" s="23"/>
+      <c r="H505" s="23"/>
+      <c r="K505" s="28"/>
+      <c r="N505" s="28"/>
+    </row>
+    <row r="506" ht="15.6" spans="4:14">
+      <c r="D506" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E506" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H506" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K506" s="28"/>
+      <c r="N506" s="28"/>
+    </row>
+    <row r="507" ht="15.6" spans="4:14">
+      <c r="D507" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E507" s="24"/>
+      <c r="H507" s="24"/>
+      <c r="K507" s="28"/>
+      <c r="N507" s="28"/>
+    </row>
+    <row r="508" ht="15.6" spans="4:16">
+      <c r="D508" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E508" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G508" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H508" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J508" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K508" s="28"/>
+      <c r="M508" s="20"/>
+      <c r="N508" s="28"/>
+      <c r="P508" s="20"/>
+    </row>
+    <row r="509" ht="15.6" spans="4:14">
+      <c r="D509" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E509" s="25"/>
+      <c r="H509" s="25"/>
+      <c r="K509" s="28"/>
+      <c r="N509" s="28"/>
+    </row>
+    <row r="510" ht="15.6" spans="4:14">
+      <c r="D510" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E510" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H510" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K510" s="28"/>
+      <c r="N510" s="28"/>
+    </row>
+    <row r="511" ht="15.6" spans="4:14">
+      <c r="D511" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E511" s="26"/>
+      <c r="H511" s="26"/>
+      <c r="K511" s="28"/>
+      <c r="N511" s="28"/>
+    </row>
+    <row r="512" ht="15.6" spans="4:14">
+      <c r="D512" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E512" s="19"/>
+      <c r="H512" s="19"/>
+      <c r="K512" s="19"/>
+      <c r="L512" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N512" s="19"/>
+    </row>
+    <row r="513" ht="15.6" spans="4:14">
+      <c r="D513" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E513" s="19"/>
+      <c r="H513" s="19"/>
+      <c r="K513" s="19"/>
+      <c r="N513" s="19"/>
+    </row>
+    <row r="514" ht="15.6" spans="4:14">
+      <c r="D514" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E514" s="19"/>
+      <c r="H514" s="19"/>
+      <c r="K514" s="19"/>
+      <c r="N514" s="19"/>
+    </row>
+    <row r="515" ht="15.6" spans="4:14">
+      <c r="D515" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E515" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H515" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K515" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N515" s="28"/>
+    </row>
+    <row r="516" ht="15.6" spans="4:14">
+      <c r="D516" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E516" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H516" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K516" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N516" s="28"/>
+    </row>
+    <row r="517" ht="15.6" spans="4:14">
+      <c r="D517" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E517" s="23"/>
+      <c r="H517" s="23"/>
+      <c r="K517" s="23"/>
+      <c r="N517" s="28"/>
+    </row>
+    <row r="518" ht="15.6" spans="4:14">
+      <c r="D518" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E518" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H518" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K518" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N518" s="28"/>
+    </row>
+    <row r="519" ht="15.6" spans="4:14">
+      <c r="D519" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E519" s="24"/>
+      <c r="H519" s="24"/>
+      <c r="K519" s="24"/>
+      <c r="N519" s="28"/>
+    </row>
+    <row r="520" ht="15.6" spans="4:16">
+      <c r="D520" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E520" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H520" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J520" s="20"/>
+      <c r="K520" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="M520" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N520" s="28"/>
+      <c r="P520" s="20"/>
+    </row>
+    <row r="521" ht="15.6" spans="4:14">
+      <c r="D521" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E521" s="25"/>
+      <c r="H521" s="25"/>
+      <c r="K521" s="25"/>
+      <c r="N521" s="28"/>
+    </row>
+    <row r="522" ht="15.6" spans="4:14">
+      <c r="D522" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E522" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H522" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K522" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N522" s="28"/>
+    </row>
+    <row r="523" ht="15.6" spans="4:14">
+      <c r="D523" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E523" s="26"/>
+      <c r="H523" s="26"/>
+      <c r="K523" s="26"/>
+      <c r="N523" s="28"/>
+    </row>
+    <row r="524" ht="15.6" spans="4:16">
+      <c r="D524" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E524" s="19"/>
+      <c r="H524" s="19"/>
+      <c r="J524" s="1"/>
+      <c r="K524" s="19"/>
+      <c r="M524" s="1"/>
+      <c r="N524" s="19"/>
+      <c r="O524" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P524" s="1"/>
+    </row>
+    <row r="525" ht="15.6" spans="4:16">
+      <c r="D525" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E525" s="19"/>
+      <c r="H525" s="19"/>
+      <c r="J525" s="1"/>
+      <c r="K525" s="19"/>
+      <c r="M525" s="1"/>
+      <c r="N525" s="19"/>
+      <c r="P525" s="1"/>
+    </row>
+    <row r="526" ht="15.6" spans="4:16">
+      <c r="D526" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E526" s="19"/>
+      <c r="H526" s="19"/>
+      <c r="J526" s="1"/>
+      <c r="K526" s="19"/>
+      <c r="M526" s="1"/>
+      <c r="N526" s="19"/>
+      <c r="P526" s="1"/>
+    </row>
+    <row r="527" ht="15.6" spans="4:16">
+      <c r="D527" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E527" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H527" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="J527" s="1"/>
+      <c r="K527" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M527" s="1"/>
+      <c r="N527" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="P527" s="1"/>
+    </row>
+    <row r="528" ht="15.6" spans="4:16">
+      <c r="D528" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E528" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H528" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J528" s="1"/>
+      <c r="K528" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M528" s="1"/>
+      <c r="N528" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P528" s="1"/>
+    </row>
+    <row r="529" ht="15.6" spans="4:14">
+      <c r="D529" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E529" s="23"/>
+      <c r="H529" s="23"/>
+      <c r="K529" s="23"/>
+      <c r="N529" s="23"/>
+    </row>
+    <row r="530" ht="15.6" spans="4:16">
+      <c r="D530" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E530" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H530" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J530" s="1"/>
+      <c r="K530" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M530" s="1"/>
+      <c r="N530" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P530" s="1"/>
+    </row>
+    <row r="531" ht="15.6" spans="4:14">
+      <c r="D531" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E531" s="24"/>
+      <c r="H531" s="24"/>
+      <c r="K531" s="24"/>
+      <c r="N531" s="24"/>
+    </row>
+    <row r="532" ht="15.6" spans="4:16">
+      <c r="D532" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E532" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H532" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J532" s="20"/>
+      <c r="K532" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M532" s="20"/>
+      <c r="N532" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P532" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="533" ht="15.6" spans="4:14">
+      <c r="D533" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E533" s="25"/>
+      <c r="H533" s="25"/>
+      <c r="K533" s="25"/>
+      <c r="N533" s="25"/>
+    </row>
+    <row r="534" ht="15.6" spans="4:14">
+      <c r="D534" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E534" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H534" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K534" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="N534" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="535" ht="15.6" spans="4:14">
+      <c r="D535" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E535" s="26"/>
+      <c r="H535" s="26"/>
+      <c r="K535" s="26"/>
+      <c r="N535" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="304">
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E47:E48"/>
@@ -6858,6 +8088,34 @@
     <mergeCell ref="E379:E380"/>
     <mergeCell ref="E430:E431"/>
     <mergeCell ref="E432:E433"/>
+    <mergeCell ref="E446:E447"/>
+    <mergeCell ref="E448:E449"/>
+    <mergeCell ref="E454:E455"/>
+    <mergeCell ref="E456:E457"/>
+    <mergeCell ref="E458:E459"/>
+    <mergeCell ref="E460:E461"/>
+    <mergeCell ref="E466:E467"/>
+    <mergeCell ref="E468:E469"/>
+    <mergeCell ref="E470:E471"/>
+    <mergeCell ref="E472:E473"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="E480:E481"/>
+    <mergeCell ref="E482:E483"/>
+    <mergeCell ref="E484:E485"/>
+    <mergeCell ref="E496:E497"/>
+    <mergeCell ref="E498:E499"/>
+    <mergeCell ref="E504:E505"/>
+    <mergeCell ref="E506:E507"/>
+    <mergeCell ref="E508:E509"/>
+    <mergeCell ref="E510:E511"/>
+    <mergeCell ref="E516:E517"/>
+    <mergeCell ref="E518:E519"/>
+    <mergeCell ref="E520:E521"/>
+    <mergeCell ref="E522:E523"/>
+    <mergeCell ref="E528:E529"/>
+    <mergeCell ref="E530:E531"/>
+    <mergeCell ref="E532:E533"/>
+    <mergeCell ref="E534:E535"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H88:H89"/>
     <mergeCell ref="H118:H119"/>
@@ -6876,6 +8134,34 @@
     <mergeCell ref="H226:H229"/>
     <mergeCell ref="H294:H295"/>
     <mergeCell ref="H296:H299"/>
+    <mergeCell ref="H446:H447"/>
+    <mergeCell ref="H448:H449"/>
+    <mergeCell ref="H454:H455"/>
+    <mergeCell ref="H456:H457"/>
+    <mergeCell ref="H458:H459"/>
+    <mergeCell ref="H460:H461"/>
+    <mergeCell ref="H466:H467"/>
+    <mergeCell ref="H468:H469"/>
+    <mergeCell ref="H470:H471"/>
+    <mergeCell ref="H472:H473"/>
+    <mergeCell ref="H478:H479"/>
+    <mergeCell ref="H480:H481"/>
+    <mergeCell ref="H482:H483"/>
+    <mergeCell ref="H484:H485"/>
+    <mergeCell ref="H496:H497"/>
+    <mergeCell ref="H498:H499"/>
+    <mergeCell ref="H504:H505"/>
+    <mergeCell ref="H506:H507"/>
+    <mergeCell ref="H508:H509"/>
+    <mergeCell ref="H510:H511"/>
+    <mergeCell ref="H516:H517"/>
+    <mergeCell ref="H518:H519"/>
+    <mergeCell ref="H520:H521"/>
+    <mergeCell ref="H522:H523"/>
+    <mergeCell ref="H528:H529"/>
+    <mergeCell ref="H530:H531"/>
+    <mergeCell ref="H532:H533"/>
+    <mergeCell ref="H534:H535"/>
     <mergeCell ref="I322:I323"/>
     <mergeCell ref="I324:I325"/>
     <mergeCell ref="I334:I335"/>
@@ -6917,6 +8203,34 @@
     <mergeCell ref="K292:K293"/>
     <mergeCell ref="K294:K295"/>
     <mergeCell ref="K296:K299"/>
+    <mergeCell ref="K446:K447"/>
+    <mergeCell ref="K448:K449"/>
+    <mergeCell ref="K454:K455"/>
+    <mergeCell ref="K456:K457"/>
+    <mergeCell ref="K458:K459"/>
+    <mergeCell ref="K460:K461"/>
+    <mergeCell ref="K466:K467"/>
+    <mergeCell ref="K468:K469"/>
+    <mergeCell ref="K470:K471"/>
+    <mergeCell ref="K472:K473"/>
+    <mergeCell ref="K478:K479"/>
+    <mergeCell ref="K480:K481"/>
+    <mergeCell ref="K482:K483"/>
+    <mergeCell ref="K484:K485"/>
+    <mergeCell ref="K496:K497"/>
+    <mergeCell ref="K498:K499"/>
+    <mergeCell ref="K504:K505"/>
+    <mergeCell ref="K506:K507"/>
+    <mergeCell ref="K508:K509"/>
+    <mergeCell ref="K510:K511"/>
+    <mergeCell ref="K516:K517"/>
+    <mergeCell ref="K518:K519"/>
+    <mergeCell ref="K520:K521"/>
+    <mergeCell ref="K522:K523"/>
+    <mergeCell ref="K528:K529"/>
+    <mergeCell ref="K530:K531"/>
+    <mergeCell ref="K532:K533"/>
+    <mergeCell ref="K534:K535"/>
     <mergeCell ref="M399:M400"/>
     <mergeCell ref="M401:M402"/>
     <mergeCell ref="M426:M427"/>
@@ -6947,6 +8261,34 @@
     <mergeCell ref="N292:N293"/>
     <mergeCell ref="N294:N295"/>
     <mergeCell ref="N296:N299"/>
+    <mergeCell ref="N446:N447"/>
+    <mergeCell ref="N448:N449"/>
+    <mergeCell ref="N454:N455"/>
+    <mergeCell ref="N456:N457"/>
+    <mergeCell ref="N458:N459"/>
+    <mergeCell ref="N460:N461"/>
+    <mergeCell ref="N466:N467"/>
+    <mergeCell ref="N468:N469"/>
+    <mergeCell ref="N470:N471"/>
+    <mergeCell ref="N472:N473"/>
+    <mergeCell ref="N478:N479"/>
+    <mergeCell ref="N480:N481"/>
+    <mergeCell ref="N482:N483"/>
+    <mergeCell ref="N484:N485"/>
+    <mergeCell ref="N496:N497"/>
+    <mergeCell ref="N498:N499"/>
+    <mergeCell ref="N504:N505"/>
+    <mergeCell ref="N506:N507"/>
+    <mergeCell ref="N508:N509"/>
+    <mergeCell ref="N510:N511"/>
+    <mergeCell ref="N516:N517"/>
+    <mergeCell ref="N518:N519"/>
+    <mergeCell ref="N520:N521"/>
+    <mergeCell ref="N522:N523"/>
+    <mergeCell ref="N528:N529"/>
+    <mergeCell ref="N530:N531"/>
+    <mergeCell ref="N532:N533"/>
+    <mergeCell ref="N534:N535"/>
     <mergeCell ref="Q82:Q83"/>
     <mergeCell ref="Q84:Q85"/>
     <mergeCell ref="Q86:Q87"/>
